--- a/TestData/Web_POS/Order/customer_tagging_order_test_data.xlsx
+++ b/TestData/Web_POS/Order/customer_tagging_order_test_data.xlsx
@@ -147,7 +147,7 @@
     <t>TC_02</t>
   </si>
   <si>
-    <t xml:space="preserve">307260624YP3 </t>
+    <t>307260624YP3</t>
   </si>
   <si>
     <t xml:space="preserve">usertwop10 </t>
@@ -882,8 +882,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0" topLeftCell="T16">
-      <selection activeCell="AB25" sqref="AB25"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0" topLeftCell="B19">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/TestData/Web_POS/Order/customer_tagging_order_test_data.xlsx
+++ b/TestData/Web_POS/Order/customer_tagging_order_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrunal\PycharmProjects\Zwing QA Automation\zwing-qa-automation\TestData\Web_POS\Order\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Indexnine\PycharmProjects\zwing-qa-automation\TestData\Web_POS\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -117,6 +117,12 @@
     <t xml:space="preserve">userone_p1 </t>
   </si>
   <si>
+    <t>2000 : 1</t>
+  </si>
+  <si>
+    <t>500 : 1</t>
+  </si>
+  <si>
     <t>Index9QA</t>
   </si>
   <si>
@@ -406,7 +412,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -427,6 +433,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -467,8 +479,25 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
+    <border>
+      <left>
+        <color indexed="64"/>
+      </left>
+      <right>
+        <color indexed="64"/>
+      </right>
+      <top>
+        <color indexed="64"/>
+      </top>
+      <bottom>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal>
+        <color indexed="64"/>
+      </diagonal>
+    </border>
     <border>
       <right style="medium">
         <color rgb="FF2B579A"/>
@@ -481,11 +510,11 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -503,16 +532,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -882,8 +914,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0" topLeftCell="B19">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0" topLeftCell="B17">
+      <selection activeCell="G2" sqref="G2:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1012,17 +1044,17 @@
       <c r="F2" s="8">
         <v>123456</v>
       </c>
-      <c r="G2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>500</v>
+      <c r="G2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
@@ -1031,60 +1063,60 @@
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="10">
+        <v>37</v>
+      </c>
+      <c r="O2" s="11">
         <v>45386</v>
       </c>
-      <c r="P2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>37</v>
+      <c r="P2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
@@ -1093,22 +1125,22 @@
         <v>123456</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F3" s="8">
         <v>123456</v>
       </c>
-      <c r="G3">
-        <v>1000</v>
-      </c>
-      <c r="H3">
-        <v>500</v>
+      <c r="G3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
@@ -1117,60 +1149,60 @@
         <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="10">
+        <v>37</v>
+      </c>
+      <c r="O3" s="11">
         <v>45386</v>
       </c>
-      <c r="P3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>37</v>
+      <c r="P3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
@@ -1179,22 +1211,22 @@
         <v>123456</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F4" s="8">
         <v>123456</v>
       </c>
-      <c r="G4">
-        <v>1000</v>
-      </c>
-      <c r="H4">
-        <v>300</v>
+      <c r="G4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -1203,60 +1235,60 @@
         <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="10">
+        <v>37</v>
+      </c>
+      <c r="O4" s="11">
         <v>45386</v>
       </c>
-      <c r="P4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>37</v>
+      <c r="P4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" ht="34.6" customHeight="1">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>30</v>
@@ -1265,22 +1297,22 @@
         <v>123456</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F5" s="8">
         <v>123456</v>
       </c>
-      <c r="G5">
-        <v>1000</v>
-      </c>
-      <c r="H5">
-        <v>400</v>
+      <c r="G5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -1289,57 +1321,57 @@
         <v>2</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="10">
+        <v>37</v>
+      </c>
+      <c r="O5" s="11">
         <v>45386</v>
       </c>
-      <c r="P5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>37</v>
+      <c r="P5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y5">
         <v>411001</v>
       </c>
       <c r="Z5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" ht="26.25" customHeight="1">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>29</v>
@@ -1356,17 +1388,17 @@
       <c r="F6" s="8">
         <v>123456</v>
       </c>
-      <c r="G6">
-        <v>1000</v>
-      </c>
-      <c r="H6">
-        <v>800</v>
+      <c r="G6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>55</v>
+        <v>34</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
@@ -1375,57 +1407,57 @@
         <v>2</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="10">
+        <v>37</v>
+      </c>
+      <c r="O6" s="11">
         <v>45386</v>
       </c>
-      <c r="P6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>37</v>
+      <c r="P6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>29</v>
@@ -1442,17 +1474,17 @@
       <c r="F7" s="8">
         <v>123456</v>
       </c>
-      <c r="G7">
-        <v>1000</v>
-      </c>
-      <c r="H7">
-        <v>600</v>
+      <c r="G7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>58</v>
+        <v>34</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
@@ -1461,57 +1493,57 @@
         <v>2</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="10">
+        <v>37</v>
+      </c>
+      <c r="O7" s="11">
         <v>45386</v>
       </c>
-      <c r="P7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>37</v>
+      <c r="P7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>29</v>
@@ -1528,17 +1560,17 @@
       <c r="F8" s="8">
         <v>123456</v>
       </c>
-      <c r="G8">
-        <v>1000</v>
-      </c>
-      <c r="H8">
-        <v>600</v>
+      <c r="G8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>60</v>
+        <v>34</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
@@ -1547,57 +1579,57 @@
         <v>2</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="10">
+        <v>37</v>
+      </c>
+      <c r="O8" s="11">
         <v>45386</v>
       </c>
-      <c r="P8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>37</v>
+      <c r="P8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" ht="32.25" customHeight="1">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>29</v>
@@ -1614,17 +1646,17 @@
       <c r="F9" s="8">
         <v>123456</v>
       </c>
-      <c r="G9">
-        <v>1000</v>
-      </c>
-      <c r="H9">
-        <v>600</v>
+      <c r="G9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>62</v>
+        <v>34</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
@@ -1633,57 +1665,57 @@
         <v>2</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="10">
+        <v>37</v>
+      </c>
+      <c r="O9" s="11">
         <v>45386</v>
       </c>
-      <c r="P9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>37</v>
+      <c r="P9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" ht="28.5" customHeight="1">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>29</v>
@@ -1700,17 +1732,17 @@
       <c r="F10" s="8">
         <v>123456</v>
       </c>
-      <c r="G10">
-        <v>1000</v>
-      </c>
-      <c r="H10">
-        <v>600</v>
+      <c r="G10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>64</v>
+        <v>34</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
@@ -1719,57 +1751,57 @@
         <v>2</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" s="10">
+        <v>37</v>
+      </c>
+      <c r="O10" s="11">
         <v>45386</v>
       </c>
-      <c r="P10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>37</v>
+      <c r="P10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W10">
         <v>9876543212</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>29</v>
@@ -1786,17 +1818,17 @@
       <c r="F11" s="8">
         <v>123456</v>
       </c>
-      <c r="G11">
-        <v>1000</v>
-      </c>
-      <c r="H11">
-        <v>600</v>
+      <c r="G11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>66</v>
+        <v>34</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
@@ -1805,57 +1837,57 @@
         <v>2</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O11" s="10">
+        <v>37</v>
+      </c>
+      <c r="O11" s="11">
         <v>45386</v>
       </c>
-      <c r="P11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>37</v>
+      <c r="P11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" ht="28.5">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>29</v>
@@ -1872,17 +1904,17 @@
       <c r="F12" s="8">
         <v>123456</v>
       </c>
-      <c r="G12">
-        <v>1000</v>
-      </c>
-      <c r="H12">
-        <v>600</v>
+      <c r="G12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>68</v>
+        <v>34</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
@@ -1891,57 +1923,57 @@
         <v>1</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O12" s="10">
+        <v>37</v>
+      </c>
+      <c r="O12" s="11">
         <v>45386</v>
       </c>
-      <c r="P12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q12" s="10" t="s">
-        <v>37</v>
+      <c r="P12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" ht="25.5">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>29</v>
@@ -1958,73 +1990,73 @@
       <c r="F13" s="8">
         <v>123456</v>
       </c>
-      <c r="G13">
-        <v>1000</v>
-      </c>
-      <c r="H13">
-        <v>600</v>
+      <c r="G13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="N13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O13" s="10">
+        <v>37</v>
+      </c>
+      <c r="O13" s="11">
         <v>45386</v>
       </c>
-      <c r="P13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q13" s="10" t="s">
-        <v>37</v>
+      <c r="P13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T13" t="s">
-        <v>72</v>
-      </c>
-      <c r="V13" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y13">
         <v>411001</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="25.5">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>29</v>
@@ -2041,73 +2073,73 @@
       <c r="F14" s="8">
         <v>123456</v>
       </c>
-      <c r="G14">
-        <v>1000</v>
-      </c>
-      <c r="H14">
-        <v>600</v>
+      <c r="G14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" s="11">
+        <v>45386</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T14" t="s">
+        <v>79</v>
+      </c>
+      <c r="U14" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O14" s="10">
-        <v>45386</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T14" t="s">
-        <v>77</v>
-      </c>
-      <c r="U14" s="11" t="s">
-        <v>73</v>
-      </c>
       <c r="W14" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y14">
         <v>411001</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>29</v>
@@ -2124,17 +2156,17 @@
       <c r="F15" s="8">
         <v>123456</v>
       </c>
-      <c r="G15">
-        <v>1000</v>
-      </c>
-      <c r="H15">
-        <v>600</v>
+      <c r="G15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K15" s="1">
         <v>1</v>
@@ -2143,28 +2175,28 @@
         <v>1</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O15" s="10">
+        <v>37</v>
+      </c>
+      <c r="O15" s="11">
         <v>45386</v>
       </c>
-      <c r="P15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>37</v>
+      <c r="P15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>80</v>
+        <v>40</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="T15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W15">
         <v>9876543212</v>
@@ -2173,18 +2205,18 @@
         <v>411001</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>29</v>
@@ -2201,17 +2233,17 @@
       <c r="F16" s="8">
         <v>123456</v>
       </c>
-      <c r="G16">
-        <v>1000</v>
-      </c>
-      <c r="H16">
-        <v>600</v>
+      <c r="G16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
@@ -2220,28 +2252,28 @@
         <v>1</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O16" s="10">
+        <v>37</v>
+      </c>
+      <c r="O16" s="11">
         <v>45386</v>
       </c>
-      <c r="P16" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q16" s="10" t="s">
-        <v>37</v>
+      <c r="P16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W16">
         <v>9876543212</v>
@@ -2250,18 +2282,18 @@
         <v>411001</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>29</v>
@@ -2278,67 +2310,67 @@
       <c r="F17" s="8">
         <v>123456</v>
       </c>
-      <c r="G17">
-        <v>1000</v>
-      </c>
-      <c r="H17">
-        <v>600</v>
+      <c r="G17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="11">
+        <v>45386</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T17" t="s">
         <v>85</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O17" s="10">
-        <v>45386</v>
-      </c>
-      <c r="P17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T17" t="s">
-        <v>83</v>
       </c>
       <c r="W17">
         <v>9876543212</v>
       </c>
       <c r="X17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>29</v>
@@ -2355,17 +2387,17 @@
       <c r="F18" s="8">
         <v>123456</v>
       </c>
-      <c r="G18">
-        <v>1000</v>
-      </c>
-      <c r="H18">
-        <v>600</v>
+      <c r="G18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
@@ -2374,48 +2406,48 @@
         <v>3</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O18" s="10">
+        <v>37</v>
+      </c>
+      <c r="O18" s="11">
         <v>45386</v>
       </c>
-      <c r="P18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>37</v>
+      <c r="P18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W18">
         <v>9876543212</v>
       </c>
       <c r="X18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" ht="25.5">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>29</v>
@@ -2432,17 +2464,17 @@
       <c r="F19" s="8">
         <v>123456</v>
       </c>
-      <c r="G19">
-        <v>1000</v>
-      </c>
-      <c r="H19">
-        <v>600</v>
+      <c r="G19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
@@ -2451,57 +2483,57 @@
         <v>1</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O19" s="10">
+        <v>37</v>
+      </c>
+      <c r="O19" s="11">
         <v>45386</v>
       </c>
-      <c r="P19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="10" t="s">
-        <v>37</v>
+      <c r="P19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>90</v>
+        <v>40</v>
+      </c>
+      <c r="S19" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="T19" t="s">
-        <v>91</v>
-      </c>
-      <c r="U19" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="V19" s="11" t="s">
-        <v>73</v>
+        <v>93</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="V19" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="W19">
         <v>8149214985</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y19">
         <v>411001</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>29</v>
@@ -2518,17 +2550,17 @@
       <c r="F20" s="8">
         <v>123456</v>
       </c>
-      <c r="G20">
-        <v>1000</v>
-      </c>
-      <c r="H20">
-        <v>600</v>
+      <c r="G20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K20" s="1">
         <v>1</v>
@@ -2537,57 +2569,57 @@
         <v>1</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O20" s="10">
+        <v>37</v>
+      </c>
+      <c r="O20" s="11">
         <v>45386</v>
       </c>
-      <c r="P20" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q20" s="10" t="s">
-        <v>37</v>
+      <c r="P20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S20" s="12" t="s">
-        <v>94</v>
+        <v>40</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="T20" t="s">
-        <v>95</v>
-      </c>
-      <c r="U20" s="11">
+        <v>97</v>
+      </c>
+      <c r="U20" s="12">
         <v>123456789876543</v>
       </c>
-      <c r="V20" s="11">
+      <c r="V20" s="12">
         <v>123456789876543</v>
       </c>
       <c r="W20">
         <v>8149214985</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y20">
         <v>411001</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" ht="25.5">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>29</v>
@@ -2604,17 +2636,17 @@
       <c r="F21" s="8">
         <v>123456</v>
       </c>
-      <c r="G21">
-        <v>1000</v>
-      </c>
-      <c r="H21">
-        <v>600</v>
+      <c r="G21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K21" s="1">
         <v>1</v>
@@ -2623,52 +2655,52 @@
         <v>1</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O21" s="10">
+        <v>37</v>
+      </c>
+      <c r="O21" s="11">
         <v>45386</v>
       </c>
-      <c r="P21" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q21" s="10" t="s">
-        <v>37</v>
+      <c r="P21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U21" s="1"/>
-      <c r="V21" s="11" t="s">
-        <v>99</v>
+      <c r="V21" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y21" s="11">
+        <v>41</v>
+      </c>
+      <c r="Y21" s="12">
         <v>791102</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AB21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>29</v>
@@ -2685,17 +2717,17 @@
       <c r="F22" s="8">
         <v>123456</v>
       </c>
-      <c r="G22">
-        <v>1000</v>
-      </c>
-      <c r="H22">
-        <v>600</v>
+      <c r="G22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K22" s="1">
         <v>1</v>
@@ -2704,51 +2736,51 @@
         <v>3</v>
       </c>
       <c r="M22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O22" s="10">
+        <v>37</v>
+      </c>
+      <c r="O22" s="11">
         <v>45386</v>
       </c>
-      <c r="P22" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>37</v>
+      <c r="P22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q22" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="U22">
         <v>123456765445434</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y22">
         <v>411001</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>29</v>
@@ -2765,17 +2797,17 @@
       <c r="F23" s="8">
         <v>123456</v>
       </c>
-      <c r="G23">
-        <v>1000</v>
-      </c>
-      <c r="H23">
-        <v>600</v>
+      <c r="G23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K23" s="1">
         <v>1</v>
@@ -2784,45 +2816,45 @@
         <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O23" s="10">
+        <v>37</v>
+      </c>
+      <c r="O23" s="11">
         <v>45386</v>
       </c>
-      <c r="P23" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q23" s="10" t="s">
-        <v>37</v>
+      <c r="P23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y23">
         <v>411001</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>29</v>
@@ -2839,61 +2871,61 @@
       <c r="F24" s="8">
         <v>123456</v>
       </c>
-      <c r="G24">
-        <v>1000</v>
-      </c>
-      <c r="H24">
-        <v>600</v>
+      <c r="G24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L24" s="1">
         <v>2</v>
       </c>
       <c r="M24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O24" s="10">
+        <v>37</v>
+      </c>
+      <c r="O24" s="11">
         <v>45386</v>
       </c>
-      <c r="P24" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q24" s="10" t="s">
-        <v>37</v>
+      <c r="P24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y24">
         <v>411001</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" ht="25.5">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>29</v>
@@ -2910,17 +2942,17 @@
       <c r="F25" s="8">
         <v>123456</v>
       </c>
-      <c r="G25">
-        <v>1000</v>
-      </c>
-      <c r="H25">
-        <v>600</v>
+      <c r="G25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K25" s="1">
         <v>1</v>
@@ -2929,54 +2961,54 @@
         <v>2</v>
       </c>
       <c r="M25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O25" s="10">
+        <v>37</v>
+      </c>
+      <c r="O25" s="11">
         <v>45386</v>
       </c>
-      <c r="P25" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q25" s="10" t="s">
-        <v>37</v>
+      <c r="P25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q25" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W25">
         <v>8149214985</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y25">
         <v>411001</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>29</v>
@@ -2993,17 +3025,17 @@
       <c r="F26" s="8">
         <v>123456</v>
       </c>
-      <c r="G26">
-        <v>1000</v>
-      </c>
-      <c r="H26">
-        <v>600</v>
+      <c r="G26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
@@ -3012,28 +3044,28 @@
         <v>2</v>
       </c>
       <c r="M26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O26" s="10">
+        <v>37</v>
+      </c>
+      <c r="O26" s="11">
         <v>45386</v>
       </c>
-      <c r="P26" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q26" s="10" t="s">
-        <v>114</v>
+      <c r="P26" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q26" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="U26">
         <v>123456765445434</v>
@@ -3042,24 +3074,24 @@
         <v>8149214985</v>
       </c>
       <c r="X26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y26" s="1">
         <v>791113</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA26" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>29</v>
@@ -3076,17 +3108,17 @@
       <c r="F27" s="8">
         <v>123456</v>
       </c>
-      <c r="G27">
-        <v>1000</v>
-      </c>
-      <c r="H27">
-        <v>600</v>
+      <c r="G27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K27" s="1">
         <v>1</v>
@@ -3095,48 +3127,48 @@
         <v>2</v>
       </c>
       <c r="M27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O27" s="10">
+        <v>37</v>
+      </c>
+      <c r="O27" s="11">
         <v>45386</v>
       </c>
-      <c r="P27" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="10" t="s">
-        <v>37</v>
+      <c r="P27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="V27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Y27">
         <v>411001</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA27" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>29</v>
@@ -3153,17 +3185,17 @@
       <c r="F28" s="8">
         <v>123456</v>
       </c>
-      <c r="G28">
-        <v>1000</v>
-      </c>
-      <c r="H28">
-        <v>600</v>
+      <c r="G28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K28" s="1">
         <v>1</v>
@@ -3172,42 +3204,42 @@
         <v>2</v>
       </c>
       <c r="M28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O28" s="10">
+        <v>37</v>
+      </c>
+      <c r="O28" s="11">
         <v>45386</v>
       </c>
-      <c r="P28" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q28" s="10" t="s">
-        <v>37</v>
+      <c r="P28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q28" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W28">
         <v>656765</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
@@ -3224,17 +3256,17 @@
       <c r="F29" s="8">
         <v>123456</v>
       </c>
-      <c r="G29">
-        <v>1000</v>
-      </c>
-      <c r="H29">
-        <v>600</v>
+      <c r="G29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K29" s="1">
         <v>1</v>
@@ -3243,57 +3275,57 @@
         <v>1</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O29" s="10">
+        <v>37</v>
+      </c>
+      <c r="O29" s="11">
         <v>45386</v>
       </c>
-      <c r="P29" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q29" s="10" t="s">
-        <v>37</v>
+      <c r="P29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q29" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
@@ -3310,17 +3342,17 @@
       <c r="F30" s="8">
         <v>123456</v>
       </c>
-      <c r="G30">
-        <v>1000</v>
-      </c>
-      <c r="H30">
-        <v>600</v>
+      <c r="G30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K30" s="1">
         <v>1</v>
@@ -3329,52 +3361,52 @@
         <v>1</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O30" s="10">
+        <v>37</v>
+      </c>
+      <c r="O30" s="11">
         <v>45386</v>
       </c>
-      <c r="P30" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q30" s="10" t="s">
-        <v>37</v>
+      <c r="P30" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="14.25">
@@ -3386,9 +3418,9 @@
       <c r="I31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
       <c r="S31" s="3"/>
     </row>
     <row r="32" ht="14.25">
@@ -3400,9 +3432,9 @@
       <c r="I32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
       <c r="S32" s="3"/>
     </row>
     <row r="33" ht="14.25">
@@ -3414,9 +3446,9 @@
       <c r="I33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
       <c r="S33" s="3"/>
     </row>
     <row r="34" ht="14.25">
@@ -3426,9 +3458,9 @@
       <c r="E34" s="7"/>
       <c r="F34" s="8"/>
       <c r="I34" s="1"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
       <c r="S34" s="3"/>
     </row>
     <row r="35" ht="14.25">
@@ -3438,9 +3470,9 @@
       <c r="E35" s="7"/>
       <c r="F35" s="8"/>
       <c r="I35" s="1"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
       <c r="S35" s="3"/>
     </row>
     <row r="36" ht="14.25">
@@ -3451,9 +3483,9 @@
       <c r="F36" s="8"/>
       <c r="I36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
       <c r="S36" s="3"/>
     </row>
     <row r="37" ht="14.25">
@@ -3463,9 +3495,9 @@
       <c r="E37" s="7"/>
       <c r="F37" s="8"/>
       <c r="I37" s="1"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
       <c r="S37" s="3"/>
     </row>
     <row r="38" ht="14.25">
@@ -3475,9 +3507,9 @@
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
       <c r="I38" s="1"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
       <c r="S38" s="3"/>
     </row>
     <row r="39" ht="14.25">
@@ -3487,9 +3519,9 @@
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
       <c r="I39" s="1"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
       <c r="S39" s="3"/>
     </row>
     <row r="40" ht="14.25">
@@ -3499,9 +3531,9 @@
       <c r="E40" s="7"/>
       <c r="F40" s="8"/>
       <c r="I40" s="1"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
       <c r="S40" s="3"/>
     </row>
     <row r="41" ht="14.25">
@@ -3511,9 +3543,9 @@
       <c r="E41" s="7"/>
       <c r="F41" s="8"/>
       <c r="I41" s="1"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
       <c r="S41" s="3"/>
     </row>
     <row r="42" ht="14.25">
@@ -3523,9 +3555,9 @@
       <c r="E42" s="7"/>
       <c r="F42" s="8"/>
       <c r="I42" s="1"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
       <c r="S42" s="3"/>
     </row>
     <row r="43" ht="14.25">
@@ -3535,9 +3567,9 @@
       <c r="E43" s="7"/>
       <c r="F43" s="8"/>
       <c r="I43" s="1"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
       <c r="S43" s="3"/>
     </row>
     <row r="44" ht="14.25">
@@ -3547,9 +3579,9 @@
       <c r="E44" s="7"/>
       <c r="F44" s="8"/>
       <c r="I44" s="1"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
       <c r="S44" s="3"/>
     </row>
     <row r="45" ht="14.25">
@@ -3559,9 +3591,9 @@
       <c r="E45" s="7"/>
       <c r="F45" s="8"/>
       <c r="I45" s="1"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
       <c r="S45" s="3"/>
     </row>
     <row r="46" ht="14.25">
@@ -3571,9 +3603,9 @@
       <c r="E46" s="7"/>
       <c r="F46" s="8"/>
       <c r="I46" s="1"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
       <c r="S46" s="3"/>
     </row>
     <row r="47" ht="14.25">
@@ -3583,9 +3615,9 @@
       <c r="E47" s="7"/>
       <c r="F47" s="8"/>
       <c r="I47" s="1"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
       <c r="S47" s="3"/>
     </row>
     <row r="48" ht="14.25">
@@ -3595,9 +3627,9 @@
       <c r="E48" s="7"/>
       <c r="F48" s="8"/>
       <c r="I48" s="1"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
       <c r="S48" s="3"/>
     </row>
     <row r="49" ht="14.25">
@@ -3607,9 +3639,9 @@
       <c r="E49" s="7"/>
       <c r="F49" s="8"/>
       <c r="I49" s="1"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
       <c r="S49" s="3"/>
     </row>
     <row r="50" ht="14.25">
@@ -3619,9 +3651,9 @@
       <c r="E50" s="7"/>
       <c r="F50" s="8"/>
       <c r="I50" s="1"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
       <c r="S50" s="3"/>
     </row>
     <row r="51" ht="14.25">
@@ -3631,9 +3663,9 @@
       <c r="E51" s="7"/>
       <c r="F51" s="8"/>
       <c r="I51" s="1"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
       <c r="S51" s="3"/>
     </row>
     <row r="52" ht="14.25">
@@ -3643,9 +3675,9 @@
       <c r="E52" s="7"/>
       <c r="F52" s="8"/>
       <c r="I52" s="1"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
       <c r="S52" s="3"/>
     </row>
     <row r="53" ht="14.25">
@@ -3655,9 +3687,9 @@
       <c r="E53" s="7"/>
       <c r="F53" s="8"/>
       <c r="I53" s="1"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
       <c r="S53" s="3"/>
     </row>
     <row r="54" ht="14.25">
@@ -3667,9 +3699,9 @@
       <c r="E54" s="7"/>
       <c r="F54" s="8"/>
       <c r="I54" s="1"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
       <c r="S54" s="3"/>
     </row>
     <row r="55" ht="14.25">
@@ -3679,9 +3711,9 @@
       <c r="E55" s="7"/>
       <c r="F55" s="8"/>
       <c r="I55" s="1"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
       <c r="S55" s="3"/>
     </row>
     <row r="56" ht="14.25">
@@ -3691,9 +3723,9 @@
       <c r="E56" s="7"/>
       <c r="F56" s="8"/>
       <c r="I56" s="1"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
       <c r="S56" s="3"/>
     </row>
     <row r="57" ht="14.25">
@@ -3703,9 +3735,9 @@
       <c r="E57" s="7"/>
       <c r="F57" s="8"/>
       <c r="I57" s="1"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
       <c r="S57" s="3"/>
     </row>
     <row r="58" ht="14.25">
@@ -3715,9 +3747,9 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="I58" s="1"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
       <c r="S58" s="3"/>
     </row>
     <row r="59" ht="14.25">
@@ -3727,9 +3759,9 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="I59" s="1"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
       <c r="S59" s="3"/>
     </row>
     <row r="60" ht="14.25">
@@ -3739,9 +3771,9 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="I60" s="1"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
       <c r="S60" s="3"/>
     </row>
     <row r="61" ht="14.25">
@@ -3751,9 +3783,9 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="I61" s="1"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
       <c r="S61" s="3"/>
     </row>
     <row r="62" ht="14.25">
@@ -3763,9 +3795,9 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="I62" s="1"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
       <c r="S62" s="3"/>
     </row>
     <row r="63" ht="14.25">
@@ -3775,9 +3807,9 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="I63" s="1"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
       <c r="S63" s="3"/>
     </row>
   </sheetData>
